--- a/biology/Médecine/Somatognosie/Somatognosie.xlsx
+++ b/biology/Médecine/Somatognosie/Somatognosie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La somatognosie réfère à la connaissance qu’un individu a de son corps et des relations entre ses différentes parties. En effet, ce concept est intimement relié au schéma corporel qui permet d’avoir une connaissance de la position, du mouvement et de la localisation de notre corps dans l’espace[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La somatognosie réfère à la connaissance qu’un individu a de son corps et des relations entre ses différentes parties. En effet, ce concept est intimement relié au schéma corporel qui permet d’avoir une connaissance de la position, du mouvement et de la localisation de notre corps dans l’espace.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Troubles somatognosiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Déjà en 1952, Hécaen et Ajuriaguerra décrivaient les syndromes suivants: l’asomatognosie, le syndrome de Gertsmann, l’autotopagnosie et le membre fantôme (Hécaen &amp; Ajuriaguerra, 1952). Depuis, certains tableaux cliniques se sont précisés. Maintenant, on sait que ces troubles peuvent avoir plusieurs conséquences dommageables pour l’enfant. En effet, on peut observer, lorsqu’une lésion se produit au niveau de la région temporo-pariéto-occipitale, des répercussions au niveau des habiletés scolaires, de la coordination motrice fine, de la perception du rythme, de l’espace et du temps. (Guiose, 2012; Vaivre-Douret, 2006)
 Asomatognosie ou agnosie somatosensorielle : perte de la conscience d’une partie (partielle) ou de la totalité de notre corps (totale). (Guiose, 2012; Jeannerod, 2010)
